--- a/pred_ohlcv/54_21/2019-10-28 POWR ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-28 POWR ohlcv.xlsx
@@ -1120,7 +1120,7 @@
         <v>26424312.39672113</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>9903812.396721132</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>20140684.31612113</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>14276756.23552113</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>17968472.54792113</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>17968472.54792113</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>18102809.14652113</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-897190.8534788713</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-897190.8534788713</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-897190.8534788713</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-897190.8534788713</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-897190.8534788713</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-897190.8534788713</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-897190.8534788713</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>2102809.146521129</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>48783734.917</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>48783734.917</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>48783734.917</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>48783734.917</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>48783734.917</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>48783734.917</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>48783734.917</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>48783734.917</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>48783734.917</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>48783734.917</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>48783734.917</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>48783734.917</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>48783734.917</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>48783734.917</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>48783734.917</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>48783734.917</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>65075334.12326171</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>65074334.12326171</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>65075826.97746171</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>65077878.87026171</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>65077878.87026171</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>65077858.87026171</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>65077040.62486171</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>65114540.21526528</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>65114540.21526528</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>65157073.98806528</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>65153383.95116528</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>65098868.58126528</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>65098868.58126528</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>65098868.58126528</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>65094558.08386528</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>65094558.08386528</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>65095640.08386528</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>65095640.08386528</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>65095640.08386528</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>65095640.08386528</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>65095640.08386528</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>65095583.62736528</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>65102982.63286528</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>65100745.93186528</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>65100745.93186528</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>65101745.93186528</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>65101745.93186528</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>65101745.93186528</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>65101745.93186528</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>65101745.93186528</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>65102568.93186528</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>65098931.45786528</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>65092906.65056528</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>65093904.82891473</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>65088011.21431473</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>65269306.03672672</v>
       </c>
       <c r="H278">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>65372128.99090373</v>
       </c>
       <c r="H279">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>65372128.99090373</v>
       </c>
       <c r="H280">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>65372689.11620373</v>
       </c>
       <c r="H281">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>65359156.89020372</v>
       </c>
       <c r="H282">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>65361089.02530372</v>
       </c>
       <c r="H283">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>65359279.02530372</v>
       </c>
       <c r="H284">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>65359279.02530372</v>
       </c>
       <c r="H285">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>65359872.37420372</v>
       </c>
       <c r="H286">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>65371731.69620372</v>
       </c>
       <c r="H287">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>65370731.69620372</v>
       </c>
       <c r="H288">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>65441874.90450372</v>
       </c>
       <c r="H289">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>65449872.98330372</v>
       </c>
       <c r="H290">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>65449872.98330372</v>
       </c>
       <c r="H291">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>65449301.46520372</v>
       </c>
       <c r="H292">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>65449301.46520372</v>
       </c>
       <c r="H293">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>65449954.53500371</v>
       </c>
       <c r="H294">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>65439229.03350371</v>
       </c>
       <c r="H295">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>65439895.03340371</v>
       </c>
       <c r="H296">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>65390943.43010371</v>
       </c>
       <c r="H297">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>65390943.43010371</v>
       </c>
       <c r="H298">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>65374193.26620371</v>
       </c>
       <c r="H299">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>65374193.26620371</v>
       </c>
       <c r="H300">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>65374193.26620371</v>
       </c>
       <c r="H301">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>65373466.92250371</v>
       </c>
       <c r="H302">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>65384423.86850371</v>
       </c>
       <c r="H303">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>65377754.82470372</v>
       </c>
       <c r="H304">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>65377754.82470372</v>
       </c>
       <c r="H305">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>65389295.43990371</v>
       </c>
       <c r="H307">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>65384083.65510371</v>
       </c>
       <c r="H308">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>65383803.65500371</v>
       </c>
       <c r="H313">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>65383803.65500371</v>
       </c>
       <c r="H314">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>65348666.74260371</v>
       </c>
       <c r="H315">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>65348065.40590371</v>
       </c>
       <c r="H316">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-28 POWR ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-28 POWR ohlcv.xlsx
@@ -522,7 +522,7 @@
         <v>190704.47682113</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>178504.35332113</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>178517.35332113</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>178517.35332113</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>2490473.35332113</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>147789.3132211301</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>1108329.85812113</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>1108329.85812113</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>5549037.72662113</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>5549037.72662113</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>5549037.72662113</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>5641037.72662113</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>5641037.72662113</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>5641037.72662113</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>5949173.72662113</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>26424312.39672113</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>9903812.396721132</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>20140684.31612113</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>14276756.23552113</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>17968472.54792113</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>17968472.54792113</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>18102809.14652113</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-897190.8534788713</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-897190.8534788713</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-897190.8534788713</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-897190.8534788713</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-897190.8534788713</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-897190.8534788713</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-897190.8534788713</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>2102809.146521129</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>48783734.917</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>48783734.917</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>48783734.917</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>48783734.917</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>48783734.917</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>48783734.917</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>48783734.917</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>48783734.917</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>48783734.917</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>48783734.917</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>48783734.917</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>48783734.917</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>48783734.917</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>48783734.917</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>48783734.917</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>48783734.917</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>65075334.12326171</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>65074334.12326171</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>65075826.97746171</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>65077878.87026171</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>65077878.87026171</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>65077858.87026171</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>65077040.62486171</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>65114540.21526528</v>
       </c>
       <c r="H220">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>65114540.21526528</v>
       </c>
       <c r="H221">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>65157073.98806528</v>
       </c>
       <c r="H222">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>65153383.95116528</v>
       </c>
       <c r="H223">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>65098868.58126528</v>
       </c>
       <c r="H224">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>65098868.58126528</v>
       </c>
       <c r="H225">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>65098868.58126528</v>
       </c>
       <c r="H226">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>65094558.08386528</v>
       </c>
       <c r="H227">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>65094558.08386528</v>
       </c>
       <c r="H228">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>65095640.08386528</v>
       </c>
       <c r="H229">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>65095640.08386528</v>
       </c>
       <c r="H230">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>65095640.08386528</v>
       </c>
       <c r="H231">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>65095640.08386528</v>
       </c>
       <c r="H232">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>65095640.08386528</v>
       </c>
       <c r="H233">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>65095583.62736528</v>
       </c>
       <c r="H234">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>65102982.63286528</v>
       </c>
       <c r="H235">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>65100745.93186528</v>
       </c>
       <c r="H236">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>65100745.93186528</v>
       </c>
       <c r="H237">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>65101745.93186528</v>
       </c>
       <c r="H240">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>65101745.93186528</v>
       </c>
       <c r="H244">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>65101745.93186528</v>
       </c>
       <c r="H245">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>65101745.93186528</v>
       </c>
       <c r="H246">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>65101745.93186528</v>
       </c>
       <c r="H247">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>65102568.93186528</v>
       </c>
       <c r="H248">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>65098931.45786528</v>
       </c>
       <c r="H250">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>65092906.65056528</v>
       </c>
       <c r="H251">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>65093904.82891473</v>
       </c>
       <c r="H252">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>65088011.21431473</v>
       </c>
       <c r="H253">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>65194185.48202673</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>65197827.07822672</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>65269306.03672672</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>65372128.99090373</v>
       </c>
       <c r="H279">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>65372128.99090373</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>65372689.11620373</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>65359156.89020372</v>
       </c>
       <c r="H282">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>65361089.02530372</v>
       </c>
       <c r="H283">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>65359279.02530372</v>
       </c>
       <c r="H284">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>65359279.02530372</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>65359872.37420372</v>
       </c>
       <c r="H286">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>65371731.69620372</v>
       </c>
       <c r="H287">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>65370731.69620372</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>65441874.90450372</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>65449872.98330372</v>
       </c>
       <c r="H290">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>65449872.98330372</v>
       </c>
       <c r="H291">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>65449301.46520372</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>65449301.46520372</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>65449954.53500371</v>
       </c>
       <c r="H294">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>65439229.03350371</v>
       </c>
       <c r="H295">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>65439895.03340371</v>
       </c>
       <c r="H296">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>65390943.43010371</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>65390943.43010371</v>
       </c>
       <c r="H298">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>65374193.26620371</v>
       </c>
       <c r="H299">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>65374193.26620371</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>65374193.26620371</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>65373466.92250371</v>
       </c>
       <c r="H302">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>65384423.86850371</v>
       </c>
       <c r="H303">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>65377754.82470372</v>
       </c>
       <c r="H304">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>65377754.82470372</v>
       </c>
       <c r="H305">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>65389295.43990371</v>
       </c>
       <c r="H307">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>65384083.65510371</v>
       </c>
       <c r="H308">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>65384083.65510371</v>
       </c>
       <c r="H309">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>65387013.65500371</v>
       </c>
       <c r="H310">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>65387013.65500371</v>
       </c>
       <c r="H311">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>65387103.65500371</v>
       </c>
       <c r="H312">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>65383803.65500371</v>
       </c>
       <c r="H313">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>65383803.65500371</v>
       </c>
       <c r="H314">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>65348666.74260371</v>
       </c>
       <c r="H315">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>65348065.40590371</v>
       </c>
       <c r="H316">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>65352067.40590371</v>
       </c>
       <c r="H318">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>65431071.99910371</v>
       </c>
       <c r="H326">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>65431071.99910371</v>
       </c>
       <c r="H327">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>65431071.99910371</v>
       </c>
       <c r="H328">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>65431071.99910371</v>
       </c>
       <c r="H329">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>65426283.28460371</v>
       </c>
       <c r="H330">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>65417077.0476037</v>
       </c>
       <c r="H335">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>65418870.23171923</v>
       </c>
       <c r="H338">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="339" spans="1:8">
